--- a/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
+++ b/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\2. Finetuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2AAFAF-E610-4BD8-B9AF-A2CDE5F52C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26ED9ED-6232-40AE-B608-45D9B254F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4608,7 +4608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
+++ b/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\2. Finetuning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton_Biodiversidad_IA_2025\Hackathon-PNAV\2. Finetuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26ED9ED-6232-40AE-B608-45D9B254F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E85F0A-29E7-4F73-885F-BD05A8BB32A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1430">
   <si>
     <t>Nombres comunes</t>
   </si>
@@ -4235,13 +4248,88 @@
   </si>
   <si>
     <t>Este es un lagarto de tamaño considerable. Los machos son un poco más largos que las hembras, midiendo entre 33 y 49 cm de largo total, mientras que las hembras alcanzan entre 29 y 45 cm. Si mides solo el cuerpo y la cabeza, los machos varían entre 13 y 19 cm y las hembras entre 15 y 15,5 cm. Recuerda que estas son medidas aproximadas y puede haber variaciones individuales.</t>
+  </si>
+  <si>
+    <t>BIEN</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>muy poco informativa… no dice nada del color por ejemplo</t>
+  </si>
+  <si>
+    <t>DUDA</t>
+  </si>
+  <si>
+    <t>La palabra "perequén" puede ser confusa no sé si se puee sustituir por otra</t>
+  </si>
+  <si>
+    <t>la veo confusa</t>
+  </si>
+  <si>
+    <t>¿"único tipo en la zona"??</t>
+  </si>
+  <si>
+    <t>razón / comentarios</t>
+  </si>
+  <si>
+    <t>poco informativa</t>
+  </si>
+  <si>
+    <t>no dice nada útil</t>
+  </si>
+  <si>
+    <t>quitaría lo de la guía</t>
+  </si>
+  <si>
+    <t>si no sabes lo que es un "eslizón" no puedes identificarlo</t>
+  </si>
+  <si>
+    <t>muy técnica</t>
+  </si>
+  <si>
+    <t>muy ténica</t>
+  </si>
+  <si>
+    <t>un poco liosa.. Haría flata una imagen que acompañara</t>
+  </si>
+  <si>
+    <t>no dice nada de las flores blancas que es realmente lo que lo diferencia</t>
+  </si>
+  <si>
+    <t>sigue siendo ténica…</t>
+  </si>
+  <si>
+    <t>no es informativa</t>
+  </si>
+  <si>
+    <t>la explicación es horrible para describir la "hiedra" común</t>
+  </si>
+  <si>
+    <t>no es informativa si no lleva una foto</t>
+  </si>
+  <si>
+    <t>depende de foto</t>
+  </si>
+  <si>
+    <t>está bien pero igual es demasiado escueta</t>
+  </si>
+  <si>
+    <t>sigue siendo algo ténica…</t>
+  </si>
+  <si>
+    <t>igual es muy corta</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4254,16 +4342,65 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4286,11 +4423,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4303,6 +4451,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4606,20 +4782,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="45.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="45.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="45.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="45.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4647,8 +4826,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4676,8 +4861,11 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -4705,8 +4893,14 @@
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -4734,8 +4928,11 @@
       <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -4763,8 +4960,11 @@
       <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -4792,8 +4992,14 @@
       <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -4821,8 +5027,11 @@
       <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -4850,8 +5059,14 @@
       <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -4879,8 +5094,11 @@
       <c r="I9" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -4908,8 +5126,11 @@
       <c r="I10" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -4937,8 +5158,11 @@
       <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -4966,8 +5190,11 @@
       <c r="I12" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -4995,8 +5222,11 @@
       <c r="I13" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>83</v>
       </c>
@@ -5024,8 +5254,11 @@
       <c r="I14" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -5053,8 +5286,11 @@
       <c r="I15" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
@@ -5082,8 +5318,14 @@
       <c r="I16" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>101</v>
       </c>
@@ -5111,8 +5353,11 @@
       <c r="I17" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -5140,8 +5385,11 @@
       <c r="I18" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>113</v>
       </c>
@@ -5169,8 +5417,11 @@
       <c r="I19" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>119</v>
       </c>
@@ -5198,8 +5449,11 @@
       <c r="I20" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>127</v>
       </c>
@@ -5227,8 +5481,11 @@
       <c r="I21" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>133</v>
       </c>
@@ -5256,8 +5513,11 @@
       <c r="I22" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>139</v>
       </c>
@@ -5285,8 +5545,11 @@
       <c r="I23" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
@@ -5314,8 +5577,11 @@
       <c r="I24" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>151</v>
       </c>
@@ -5343,8 +5609,14 @@
       <c r="I25" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -5372,8 +5644,11 @@
       <c r="I26" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>163</v>
       </c>
@@ -5401,8 +5676,11 @@
       <c r="I27" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>169</v>
       </c>
@@ -5430,8 +5708,11 @@
       <c r="I28" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>175</v>
       </c>
@@ -5459,8 +5740,11 @@
       <c r="I29" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>181</v>
       </c>
@@ -5488,8 +5772,11 @@
       <c r="I30" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>187</v>
       </c>
@@ -5517,8 +5804,11 @@
       <c r="I31" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>193</v>
       </c>
@@ -5546,8 +5836,11 @@
       <c r="I32" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>199</v>
       </c>
@@ -5575,8 +5868,11 @@
       <c r="I33" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>205</v>
       </c>
@@ -5604,8 +5900,11 @@
       <c r="I34" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>211</v>
       </c>
@@ -5633,8 +5932,11 @@
       <c r="I35" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>217</v>
       </c>
@@ -5662,8 +5964,11 @@
       <c r="I36" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>223</v>
       </c>
@@ -5691,8 +5996,11 @@
       <c r="I37" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>229</v>
       </c>
@@ -5720,8 +6028,11 @@
       <c r="I38" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>235</v>
       </c>
@@ -5749,8 +6060,11 @@
       <c r="I39" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>241</v>
       </c>
@@ -5778,8 +6092,11 @@
       <c r="I40" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>247</v>
       </c>
@@ -5807,8 +6124,11 @@
       <c r="I41" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>253</v>
       </c>
@@ -5836,8 +6156,11 @@
       <c r="I42" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>259</v>
       </c>
@@ -5865,8 +6188,11 @@
       <c r="I43" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>265</v>
       </c>
@@ -5894,8 +6220,14 @@
       <c r="I44" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>271</v>
@@ -5921,8 +6253,11 @@
       <c r="I45" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>276</v>
       </c>
@@ -5950,8 +6285,11 @@
       <c r="I46" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>282</v>
       </c>
@@ -5979,8 +6317,11 @@
       <c r="I47" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>288</v>
       </c>
@@ -6008,8 +6349,11 @@
       <c r="I48" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>294</v>
       </c>
@@ -6037,8 +6381,11 @@
       <c r="I49" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>300</v>
       </c>
@@ -6066,8 +6413,11 @@
       <c r="I50" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>306</v>
       </c>
@@ -6095,8 +6445,11 @@
       <c r="I51" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>312</v>
       </c>
@@ -6124,8 +6477,11 @@
       <c r="I52" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>318</v>
       </c>
@@ -6153,8 +6509,11 @@
       <c r="I53" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>324</v>
       </c>
@@ -6182,8 +6541,11 @@
       <c r="I54" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>330</v>
       </c>
@@ -6211,8 +6573,11 @@
       <c r="I55" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>336</v>
       </c>
@@ -6240,8 +6605,11 @@
       <c r="I56" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>342</v>
       </c>
@@ -6269,8 +6637,11 @@
       <c r="I57" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>348</v>
       </c>
@@ -6298,8 +6669,11 @@
       <c r="I58" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>354</v>
       </c>
@@ -6327,8 +6701,11 @@
       <c r="I59" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>360</v>
       </c>
@@ -6356,8 +6733,11 @@
       <c r="I60" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>366</v>
       </c>
@@ -6385,8 +6765,11 @@
       <c r="I61" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>372</v>
       </c>
@@ -6414,8 +6797,11 @@
       <c r="I62" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>378</v>
       </c>
@@ -6443,8 +6829,11 @@
       <c r="I63" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>384</v>
       </c>
@@ -6472,8 +6861,11 @@
       <c r="I64" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>390</v>
       </c>
@@ -6501,8 +6893,11 @@
       <c r="I65" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>396</v>
       </c>
@@ -6530,8 +6925,11 @@
       <c r="I66" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>402</v>
       </c>
@@ -6559,8 +6957,11 @@
       <c r="I67" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>408</v>
       </c>
@@ -6588,8 +6989,11 @@
       <c r="I68" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>414</v>
       </c>
@@ -6617,8 +7021,11 @@
       <c r="I69" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>420</v>
       </c>
@@ -6646,8 +7053,11 @@
       <c r="I70" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>426</v>
       </c>
@@ -6675,8 +7085,11 @@
       <c r="I71" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>432</v>
       </c>
@@ -6704,8 +7117,11 @@
       <c r="I72" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>438</v>
       </c>
@@ -6733,8 +7149,11 @@
       <c r="I73" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>444</v>
       </c>
@@ -6762,8 +7181,11 @@
       <c r="I74" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>450</v>
       </c>
@@ -6791,8 +7213,11 @@
       <c r="I75" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>456</v>
@@ -6818,8 +7243,14 @@
       <c r="I76" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>461</v>
       </c>
@@ -6847,8 +7278,11 @@
       <c r="I77" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>467</v>
       </c>
@@ -6876,8 +7310,11 @@
       <c r="I78" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="173" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>473</v>
       </c>
@@ -6905,8 +7342,11 @@
       <c r="I79" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>479</v>
       </c>
@@ -6934,8 +7374,11 @@
       <c r="I80" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J80" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>485</v>
       </c>
@@ -6963,8 +7406,11 @@
       <c r="I81" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>491</v>
       </c>
@@ -6992,8 +7438,11 @@
       <c r="I82" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>497</v>
       </c>
@@ -7021,8 +7470,11 @@
       <c r="I83" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>503</v>
       </c>
@@ -7050,8 +7502,11 @@
       <c r="I84" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>509</v>
       </c>
@@ -7079,8 +7534,11 @@
       <c r="I85" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J85" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>515</v>
       </c>
@@ -7108,8 +7566,11 @@
       <c r="I86" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>521</v>
       </c>
@@ -7137,8 +7598,14 @@
       <c r="I87" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>527</v>
       </c>
@@ -7166,8 +7633,11 @@
       <c r="I88" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>533</v>
@@ -7193,8 +7663,11 @@
       <c r="I89" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>538</v>
       </c>
@@ -7222,8 +7695,11 @@
       <c r="I90" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>544</v>
       </c>
@@ -7251,8 +7727,11 @@
       <c r="I91" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>550</v>
       </c>
@@ -7280,8 +7759,11 @@
       <c r="I92" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J92" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>556</v>
       </c>
@@ -7309,8 +7791,11 @@
       <c r="I93" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J93" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>562</v>
       </c>
@@ -7338,8 +7823,11 @@
       <c r="I94" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J94" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>568</v>
       </c>
@@ -7367,8 +7855,11 @@
       <c r="I95" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J95" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>574</v>
       </c>
@@ -7396,8 +7887,11 @@
       <c r="I96" s="3" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J96" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>580</v>
       </c>
@@ -7425,8 +7919,11 @@
       <c r="I97" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J97" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>586</v>
       </c>
@@ -7454,8 +7951,11 @@
       <c r="I98" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J98" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>592</v>
       </c>
@@ -7483,8 +7983,11 @@
       <c r="I99" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>598</v>
       </c>
@@ -7512,8 +8015,11 @@
       <c r="I100" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J100" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>604</v>
       </c>
@@ -7541,8 +8047,11 @@
       <c r="I101" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J101" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>610</v>
       </c>
@@ -7570,8 +8079,11 @@
       <c r="I102" s="3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J102" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>616</v>
       </c>
@@ -7599,8 +8111,11 @@
       <c r="I103" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J103" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>622</v>
       </c>
@@ -7628,8 +8143,14 @@
       <c r="I104" s="3" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>628</v>
       </c>
@@ -7657,8 +8178,14 @@
       <c r="I105" s="3" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J105" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>634</v>
       </c>
@@ -7686,8 +8213,11 @@
       <c r="I106" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>640</v>
       </c>
@@ -7715,8 +8245,11 @@
       <c r="I107" s="3" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J107" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>646</v>
       </c>
@@ -7744,8 +8277,11 @@
       <c r="I108" s="3" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J108" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>652</v>
       </c>
@@ -7773,8 +8309,11 @@
       <c r="I109" s="3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J109" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>658</v>
       </c>
@@ -7802,8 +8341,11 @@
       <c r="I110" s="3" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J110" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>664</v>
       </c>
@@ -7831,8 +8373,11 @@
       <c r="I111" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J111" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>670</v>
       </c>
@@ -7860,8 +8405,14 @@
       <c r="I112" s="3" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>676</v>
       </c>
@@ -7889,8 +8440,14 @@
       <c r="I113" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J113" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>682</v>
       </c>
@@ -7918,8 +8475,11 @@
       <c r="I114" s="3" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>688</v>
       </c>
@@ -7947,8 +8507,11 @@
       <c r="I115" s="3" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J115" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>694</v>
@@ -7974,8 +8537,11 @@
       <c r="I116" s="3" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J116" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>700</v>
@@ -8001,8 +8567,11 @@
       <c r="I117" s="3" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>705</v>
       </c>
@@ -8030,8 +8599,11 @@
       <c r="I118" s="3" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J118" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>712</v>
@@ -8057,8 +8629,11 @@
       <c r="I119" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J119" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>717</v>
@@ -8084,8 +8659,11 @@
       <c r="I120" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J120" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>722</v>
@@ -8111,8 +8689,11 @@
       <c r="I121" s="3" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>727</v>
@@ -8138,8 +8719,11 @@
       <c r="I122" s="3" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J122" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>732</v>
@@ -8165,8 +8749,11 @@
       <c r="I123" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>737</v>
@@ -8192,8 +8779,11 @@
       <c r="I124" s="3" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>742</v>
@@ -8219,8 +8809,11 @@
       <c r="I125" s="3" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>747</v>
@@ -8246,8 +8839,11 @@
       <c r="I126" s="3" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J126" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>752</v>
@@ -8273,8 +8869,11 @@
       <c r="I127" s="3" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J127" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>757</v>
@@ -8300,8 +8899,11 @@
       <c r="I128" s="3" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J128" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>762</v>
@@ -8327,8 +8929,11 @@
       <c r="I129" s="3" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J129" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>767</v>
@@ -8354,8 +8959,11 @@
       <c r="I130" s="3" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>772</v>
@@ -8381,8 +8989,11 @@
       <c r="I131" s="3" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>777</v>
@@ -8408,8 +9019,11 @@
       <c r="I132" s="3" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J132" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>782</v>
@@ -8435,8 +9049,11 @@
       <c r="I133" s="3" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J133" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>787</v>
@@ -8462,8 +9079,11 @@
       <c r="I134" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J134" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>792</v>
@@ -8489,8 +9109,11 @@
       <c r="I135" s="3" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>797</v>
@@ -8516,8 +9139,14 @@
       <c r="I136" s="3" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J136" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>802</v>
@@ -8543,8 +9172,11 @@
       <c r="I137" s="3" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J137" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>807</v>
@@ -8570,8 +9202,11 @@
       <c r="I138" s="3" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J138" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>812</v>
@@ -8597,8 +9232,11 @@
       <c r="I139" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J139" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>817</v>
@@ -8624,8 +9262,11 @@
       <c r="I140" s="3" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J140" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>822</v>
@@ -8651,8 +9292,11 @@
       <c r="I141" s="3" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J141" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>827</v>
@@ -8678,8 +9322,11 @@
       <c r="I142" s="3" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J142" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>832</v>
@@ -8705,8 +9352,11 @@
       <c r="I143" s="3" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>837</v>
@@ -8732,8 +9382,11 @@
       <c r="I144" s="3" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J144" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>842</v>
@@ -8759,8 +9412,11 @@
       <c r="I145" s="3" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>847</v>
@@ -8786,8 +9442,11 @@
       <c r="I146" s="3" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J146" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>852</v>
@@ -8813,8 +9472,11 @@
       <c r="I147" s="3" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J147" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>857</v>
@@ -8840,8 +9502,11 @@
       <c r="I148" s="3" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J148" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>862</v>
@@ -8867,8 +9532,11 @@
       <c r="I149" s="3" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J149" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>867</v>
@@ -8894,8 +9562,11 @@
       <c r="I150" s="3" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J150" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>872</v>
@@ -8921,8 +9592,11 @@
       <c r="I151" s="3" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J151" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4" t="s">
         <v>877</v>
@@ -8948,8 +9622,11 @@
       <c r="I152" s="3" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J152" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="s">
         <v>882</v>
@@ -8975,8 +9652,11 @@
       <c r="I153" s="3" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J153" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
         <v>887</v>
@@ -9002,8 +9682,11 @@
       <c r="I154" s="3" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
         <v>892</v>
@@ -9029,8 +9712,11 @@
       <c r="I155" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
         <v>897</v>
@@ -9056,8 +9742,11 @@
       <c r="I156" s="3" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J156" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
         <v>902</v>
@@ -9083,8 +9772,11 @@
       <c r="I157" s="3" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J157" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
         <v>907</v>
@@ -9110,8 +9802,11 @@
       <c r="I158" s="3" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J158" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
         <v>912</v>
@@ -9137,8 +9832,11 @@
       <c r="I159" s="3" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J159" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
         <v>917</v>
@@ -9164,8 +9862,11 @@
       <c r="I160" s="3" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J160" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
         <v>922</v>
@@ -9191,8 +9892,11 @@
       <c r="I161" s="3" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J161" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="s">
         <v>927</v>
@@ -9218,8 +9922,11 @@
       <c r="I162" s="3" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J162" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
         <v>932</v>
@@ -9245,8 +9952,11 @@
       <c r="I163" s="3" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="s">
         <v>937</v>
@@ -9272,8 +9982,11 @@
       <c r="I164" s="3" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J164" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
         <v>942</v>
@@ -9300,7 +10013,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4" t="s">
         <v>947</v>
@@ -9326,8 +10039,11 @@
       <c r="I166" s="3" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J166" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
         <v>952</v>
@@ -9353,8 +10069,11 @@
       <c r="I167" s="3" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J167" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
         <v>957</v>
@@ -9380,8 +10099,11 @@
       <c r="I168" s="3" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J168" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
         <v>962</v>
@@ -9407,8 +10129,11 @@
       <c r="I169" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J169" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
         <v>967</v>
@@ -9434,8 +10159,11 @@
       <c r="I170" s="3" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J170" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
         <v>972</v>
@@ -9461,8 +10189,11 @@
       <c r="I171" s="3" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J171" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4" t="s">
         <v>977</v>
@@ -9488,8 +10219,11 @@
       <c r="I172" s="3" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J172" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
         <v>982</v>
@@ -9515,8 +10249,11 @@
       <c r="I173" s="3" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J173" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4" t="s">
         <v>987</v>
@@ -9542,8 +10279,11 @@
       <c r="I174" s="3" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J174" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="s">
         <v>992</v>
@@ -9569,8 +10309,11 @@
       <c r="I175" s="3" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J175" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="s">
         <v>997</v>
@@ -9596,8 +10339,11 @@
       <c r="I176" s="3" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J176" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="s">
         <v>1002</v>
@@ -9623,8 +10369,11 @@
       <c r="I177" s="3" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J177" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
         <v>1007</v>
@@ -9650,8 +10399,11 @@
       <c r="I178" s="3" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J178" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4" t="s">
         <v>1012</v>
@@ -9677,8 +10429,11 @@
       <c r="I179" s="3" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4" t="s">
         <v>1017</v>
@@ -9704,8 +10459,11 @@
       <c r="I180" s="3" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J180" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="s">
         <v>1022</v>
@@ -9731,8 +10489,11 @@
       <c r="I181" s="3" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J181" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4" t="s">
         <v>1027</v>
@@ -9758,8 +10519,11 @@
       <c r="I182" s="3" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J182" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
         <v>1032</v>
@@ -9785,8 +10549,11 @@
       <c r="I183" s="3" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J183" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4" t="s">
         <v>1037</v>
@@ -9812,8 +10579,11 @@
       <c r="I184" s="3" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J184" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>1042</v>
       </c>
@@ -9841,8 +10611,11 @@
       <c r="I185" s="3" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J185" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>1048</v>
       </c>
@@ -9870,8 +10643,11 @@
       <c r="I186" s="3" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J186" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
         <v>1054</v>
@@ -9897,8 +10673,11 @@
       <c r="I187" s="3" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J187" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4" t="s">
         <v>1059</v>
@@ -9924,8 +10703,11 @@
       <c r="I188" s="3" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J188" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>1064</v>
       </c>
@@ -9953,8 +10735,11 @@
       <c r="I189" s="3" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J189" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4" t="s">
         <v>1070</v>
@@ -9980,8 +10765,11 @@
       <c r="I190" s="3" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J190" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
         <v>1075</v>
@@ -10007,8 +10795,11 @@
       <c r="I191" s="3" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J191" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4" t="s">
         <v>1080</v>
@@ -10034,8 +10825,11 @@
       <c r="I192" s="3" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J192" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
         <v>1085</v>
@@ -10061,8 +10855,11 @@
       <c r="I193" s="3" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J193" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4" t="s">
         <v>1090</v>
@@ -10088,8 +10885,11 @@
       <c r="I194" s="3" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J194" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4" t="s">
         <v>1095</v>
@@ -10115,8 +10915,11 @@
       <c r="I195" s="3" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J195" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="s">
         <v>1100</v>
@@ -10142,8 +10945,11 @@
       <c r="I196" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J196" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
         <v>1105</v>
@@ -10169,8 +10975,11 @@
       <c r="I197" s="3" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J197" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4" t="s">
         <v>1110</v>
@@ -10196,8 +11005,11 @@
       <c r="I198" s="3" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J198" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
         <v>1115</v>
@@ -10223,8 +11035,11 @@
       <c r="I199" s="3" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J199" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="s">
         <v>1120</v>
@@ -10250,8 +11065,11 @@
       <c r="I200" s="3" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J200" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
         <v>1125</v>
@@ -10277,8 +11095,11 @@
       <c r="I201" s="3" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J201" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4" t="s">
         <v>1131</v>
@@ -10304,8 +11125,11 @@
       <c r="I202" s="3" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J202" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
         <v>1136</v>
@@ -10331,8 +11155,11 @@
       <c r="I203" s="3" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J203" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="s">
         <v>1141</v>
@@ -10358,8 +11185,11 @@
       <c r="I204" s="3" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J204" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>1146</v>
       </c>
@@ -10387,8 +11217,11 @@
       <c r="I205" s="3" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J205" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4" t="s">
         <v>1152</v>
@@ -10414,8 +11247,11 @@
       <c r="I206" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J206" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
         <v>1157</v>
@@ -10441,8 +11277,11 @@
       <c r="I207" s="3" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J207" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="s">
         <v>1162</v>
@@ -10468,8 +11307,11 @@
       <c r="I208" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J208" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
         <v>1167</v>
@@ -10495,8 +11337,11 @@
       <c r="I209" s="3" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J209" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>1172</v>
       </c>
@@ -10524,8 +11369,14 @@
       <c r="I210" s="3" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J210" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K210" s="13" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4" t="s">
         <v>1178</v>
@@ -10551,8 +11402,11 @@
       <c r="I211" s="3" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J211" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="s">
         <v>1183</v>
@@ -10578,8 +11432,11 @@
       <c r="I212" s="3" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J212" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
         <v>1188</v>
@@ -10605,8 +11462,11 @@
       <c r="I213" s="3" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J213" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="s">
         <v>1193</v>
@@ -10632,8 +11492,11 @@
       <c r="I214" s="3" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J214" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
         <v>1198</v>
@@ -10659,8 +11522,11 @@
       <c r="I215" s="3" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J215" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="s">
         <v>1203</v>
@@ -10686,8 +11552,11 @@
       <c r="I216" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J216" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
         <v>1208</v>
@@ -10713,8 +11582,11 @@
       <c r="I217" s="3" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J217" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="s">
         <v>1213</v>
@@ -10740,8 +11612,11 @@
       <c r="I218" s="3" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J218" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
         <v>1218</v>
@@ -10767,8 +11642,11 @@
       <c r="I219" s="3" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J219" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="s">
         <v>1223</v>
@@ -10794,8 +11672,11 @@
       <c r="I220" s="3" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J220" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>1228</v>
       </c>
@@ -10823,8 +11704,11 @@
       <c r="I221" s="3" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J221" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="s">
         <v>1234</v>
@@ -10850,8 +11734,14 @@
       <c r="I222" s="3" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J222" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K222" s="13" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="s">
         <v>1239</v>
@@ -10877,8 +11767,11 @@
       <c r="I223" s="3" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J223" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4" t="s">
         <v>1244</v>
@@ -10904,8 +11797,11 @@
       <c r="I224" s="3" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J224" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
         <v>1249</v>
@@ -10931,8 +11827,11 @@
       <c r="I225" s="3" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J225" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
         <v>1254</v>
@@ -10958,8 +11857,11 @@
       <c r="I226" s="3" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J226" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
         <v>1259</v>
@@ -10985,8 +11887,11 @@
       <c r="I227" s="3" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J227" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4" t="s">
         <v>1264</v>
@@ -11012,8 +11917,11 @@
       <c r="I228" s="3" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J228" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
         <v>1269</v>
@@ -11039,8 +11947,11 @@
       <c r="I229" s="3" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J229" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>1274</v>
       </c>
@@ -11068,8 +11979,11 @@
       <c r="I230" s="3" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J230" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
         <v>1280</v>
@@ -11095,8 +12009,11 @@
       <c r="I231" s="3" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J231" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>1285</v>
@@ -11122,8 +12039,11 @@
       <c r="I232" s="3" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J232" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>1290</v>
@@ -11149,8 +12069,11 @@
       <c r="I233" s="3" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J233" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4" t="s">
         <v>1295</v>
@@ -11176,8 +12099,11 @@
       <c r="I234" s="3" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J234" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4" t="s">
         <v>1300</v>
@@ -11203,8 +12129,11 @@
       <c r="I235" s="3" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J235" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4" t="s">
         <v>1305</v>
@@ -11230,8 +12159,11 @@
       <c r="I236" s="3" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J236" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
         <v>1310</v>
@@ -11257,8 +12189,11 @@
       <c r="I237" s="3" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J237" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="s">
         <v>1315</v>
@@ -11284,8 +12219,11 @@
       <c r="I238" s="3" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J238" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
         <v>1320</v>
@@ -11311,8 +12249,11 @@
       <c r="I239" s="3" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J239" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4" t="s">
         <v>1325</v>
@@ -11338,8 +12279,14 @@
       <c r="I240" s="3" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J240" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K240" s="13" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="s">
         <v>1330</v>
@@ -11365,8 +12312,11 @@
       <c r="I241" s="3" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J241" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4" t="s">
         <v>1335</v>
@@ -11392,8 +12342,14 @@
       <c r="I242" s="3" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J242" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K242" s="13" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>1340</v>
       </c>
@@ -11421,8 +12377,11 @@
       <c r="I243" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J243" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>1346</v>
       </c>
@@ -11450,8 +12409,11 @@
       <c r="I244" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J244" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>1352</v>
       </c>
@@ -11479,8 +12441,11 @@
       <c r="I245" s="3" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J245" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="s">
         <v>1358</v>
@@ -11506,8 +12471,14 @@
       <c r="I246" s="3" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J246" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K246" s="13" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="s">
         <v>1363</v>
@@ -11533,8 +12504,14 @@
       <c r="I247" s="3" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J247" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K247" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>1368</v>
       </c>
@@ -11562,8 +12539,11 @@
       <c r="I248" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J248" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>1374</v>
       </c>
@@ -11591,8 +12571,14 @@
       <c r="I249" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J249" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K249" s="13" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="148" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>1381</v>
       </c>
@@ -11620,8 +12606,14 @@
       <c r="I250" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J250" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K250" s="13" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>1387</v>
       </c>
@@ -11649,8 +12641,11 @@
       <c r="I251" s="3" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J251" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>1393</v>
       </c>
@@ -11672,14 +12667,17 @@
       <c r="G252" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="H252" s="7" t="s">
         <v>1397</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J252" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>1399</v>
       </c>
@@ -11706,6 +12704,12 @@
       </c>
       <c r="I253" s="3" t="s">
         <v>1404</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K253" s="14" t="s">
+        <v>1407</v>
       </c>
     </row>
   </sheetData>

--- a/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
+++ b/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\2. Finetuning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton_Biodiversidad_IA_2025\Hackathon-PNAV\2. Finetuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BF826-FFB7-4AB2-864C-D1677795F4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B6ABC-BC8C-4EF3-986B-2DA861A19767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="2273">
   <si>
     <t>Nombres comunes</t>
   </si>
@@ -6836,6 +6836,9 @@
   </si>
   <si>
     <t>La culebra real de California es una serpiente de tamaño mediano. Las crías miden alrededor de 23 centímetros, mientras que las adultas alcanzan hasta 1 metro con 20 centímetros. Su cabeza tiene escamas grandes y fáciles de distinguir, y sus ojos son normales, no muy pequeños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -6854,6 +6857,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7290,21 +7294,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G406" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="45.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="45.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="2"/>
+    <col min="2" max="2" width="20.54296875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" style="2"/>
+    <col min="5" max="5" width="45.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="45.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7339,7 +7345,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -7406,7 +7412,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -7700,7 +7706,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>89</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>113</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>139</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>151</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
@@ -8154,7 +8160,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>163</v>
       </c>
@@ -8186,7 +8192,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>175</v>
       </c>
@@ -8250,7 +8256,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>187</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>193</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>199</v>
       </c>
@@ -8378,7 +8384,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>205</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -8442,7 +8448,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>217</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>223</v>
       </c>
@@ -8506,7 +8512,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>235</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -8602,7 +8608,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>247</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>253</v>
       </c>
@@ -8666,7 +8672,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>265</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>276</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>282</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>288</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>300</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>306</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>312</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>318</v>
       </c>
@@ -9018,7 +9024,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>324</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>330</v>
       </c>
@@ -9082,7 +9088,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>336</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>342</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>348</v>
       </c>
@@ -9178,7 +9184,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -9210,7 +9216,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>366</v>
       </c>
@@ -9274,7 +9280,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>372</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>378</v>
       </c>
@@ -9338,7 +9344,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>384</v>
       </c>
@@ -9370,7 +9376,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>390</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>396</v>
       </c>
@@ -9434,7 +9440,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>402</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>408</v>
       </c>
@@ -9498,7 +9504,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>414</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>420</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>426</v>
       </c>
@@ -9594,7 +9600,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>432</v>
       </c>
@@ -9626,7 +9632,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>438</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>444</v>
       </c>
@@ -9690,7 +9696,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>450</v>
       </c>
@@ -9722,7 +9728,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
         <v>456</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>461</v>
       </c>
@@ -9786,7 +9792,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>467</v>
       </c>
@@ -9818,7 +9824,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>473</v>
       </c>
@@ -9850,7 +9856,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>479</v>
       </c>
@@ -9882,7 +9888,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>485</v>
       </c>
@@ -9914,7 +9920,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>491</v>
       </c>
@@ -9946,7 +9952,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>497</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>503</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>509</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>515</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>521</v>
       </c>
@@ -10109,7 +10115,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>527</v>
       </c>
@@ -10141,7 +10147,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
         <v>533</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>538</v>
       </c>
@@ -10202,7 +10208,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>544</v>
       </c>
@@ -10234,7 +10240,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>550</v>
       </c>
@@ -10266,7 +10272,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>556</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>562</v>
       </c>
@@ -10330,7 +10336,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>568</v>
       </c>
@@ -10362,7 +10368,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>574</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>580</v>
       </c>
@@ -10426,7 +10432,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>586</v>
       </c>
@@ -10458,7 +10464,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>592</v>
       </c>
@@ -10490,7 +10496,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>598</v>
       </c>
@@ -10522,7 +10528,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>604</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>610</v>
       </c>
@@ -10586,7 +10592,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>616</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>622</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>628</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>634</v>
       </c>
@@ -10720,7 +10726,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>640</v>
       </c>
@@ -10752,7 +10758,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>646</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>652</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>658</v>
       </c>
@@ -10848,7 +10854,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>664</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>670</v>
       </c>
@@ -10915,7 +10921,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>676</v>
       </c>
@@ -10950,7 +10956,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>682</v>
       </c>
@@ -10982,7 +10988,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>688</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="2" t="s">
         <v>694</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="2" t="s">
         <v>700</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>705</v>
       </c>
@@ -11104,7 +11110,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="2" t="s">
         <v>712</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="2" t="s">
         <v>717</v>
       </c>
@@ -11162,7 +11168,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="2" t="s">
         <v>722</v>
       </c>
@@ -11191,7 +11197,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="2" t="s">
         <v>727</v>
       </c>
@@ -11220,7 +11226,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="2" t="s">
         <v>732</v>
       </c>
@@ -11249,7 +11255,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="2" t="s">
         <v>737</v>
       </c>
@@ -11278,7 +11284,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="2" t="s">
         <v>742</v>
       </c>
@@ -11307,7 +11313,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="2" t="s">
         <v>747</v>
       </c>
@@ -11336,7 +11342,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="2" t="s">
         <v>752</v>
       </c>
@@ -11365,7 +11371,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
         <v>757</v>
       </c>
@@ -11394,7 +11400,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="2" t="s">
         <v>762</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="2" t="s">
         <v>767</v>
       </c>
@@ -11452,7 +11458,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="2" t="s">
         <v>772</v>
       </c>
@@ -11481,7 +11487,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="2" t="s">
         <v>777</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="2" t="s">
         <v>782</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="2" t="s">
         <v>787</v>
       </c>
@@ -11568,7 +11574,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="2" t="s">
         <v>792</v>
       </c>
@@ -11597,7 +11603,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="2" t="s">
         <v>797</v>
       </c>
@@ -11629,7 +11635,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="2" t="s">
         <v>802</v>
       </c>
@@ -11658,7 +11664,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="2" t="s">
         <v>807</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="2" t="s">
         <v>812</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="2" t="s">
         <v>817</v>
       </c>
@@ -11745,7 +11751,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="2" t="s">
         <v>822</v>
       </c>
@@ -11774,7 +11780,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="2" t="s">
         <v>827</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="2" t="s">
         <v>832</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="2" t="s">
         <v>837</v>
       </c>
@@ -11857,11 +11863,11 @@
       <c r="I144" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="J144" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="2" t="s">
         <v>842</v>
       </c>
@@ -11890,7 +11896,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="2" t="s">
         <v>847</v>
       </c>
@@ -11919,7 +11925,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="2" t="s">
         <v>852</v>
       </c>
@@ -11948,7 +11954,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="2" t="s">
         <v>857</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="2" t="s">
         <v>862</v>
       </c>
@@ -12006,7 +12012,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="2" t="s">
         <v>867</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="2" t="s">
         <v>872</v>
       </c>
@@ -12064,7 +12070,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="2" t="s">
         <v>877</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="2" t="s">
         <v>882</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="2" t="s">
         <v>887</v>
       </c>
@@ -12151,7 +12157,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="2" t="s">
         <v>892</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="2" t="s">
         <v>897</v>
       </c>
@@ -12209,7 +12215,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="2" t="s">
         <v>902</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="2" t="s">
         <v>907</v>
       </c>
@@ -12267,7 +12273,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="2" t="s">
         <v>912</v>
       </c>
@@ -12296,7 +12302,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="2" t="s">
         <v>917</v>
       </c>
@@ -12321,11 +12327,11 @@
       <c r="I160" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="J160" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J160" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="2" t="s">
         <v>922</v>
       </c>
@@ -12354,7 +12360,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="2" t="s">
         <v>927</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2" t="s">
         <v>932</v>
       </c>
@@ -12412,7 +12418,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="2" t="s">
         <v>937</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="2" t="s">
         <v>942</v>
       </c>
@@ -12466,11 +12472,11 @@
       <c r="I165" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="J165" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J165" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="2" t="s">
         <v>947</v>
       </c>
@@ -12499,7 +12505,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="2" t="s">
         <v>952</v>
       </c>
@@ -12528,7 +12534,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="2" t="s">
         <v>957</v>
       </c>
@@ -12557,7 +12563,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="2" t="s">
         <v>962</v>
       </c>
@@ -12586,7 +12592,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="2" t="s">
         <v>967</v>
       </c>
@@ -12615,7 +12621,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="171" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="2" t="s">
         <v>972</v>
       </c>
@@ -12644,7 +12650,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="2" t="s">
         <v>977</v>
       </c>
@@ -12673,7 +12679,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="2" t="s">
         <v>982</v>
       </c>
@@ -12702,7 +12708,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="2" t="s">
         <v>987</v>
       </c>
@@ -12731,7 +12737,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="2" t="s">
         <v>992</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="2" t="s">
         <v>997</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="2" t="s">
         <v>1002</v>
       </c>
@@ -12818,7 +12824,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="2" t="s">
         <v>1007</v>
       </c>
@@ -12847,7 +12853,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="2" t="s">
         <v>1012</v>
       </c>
@@ -12876,7 +12882,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="2" t="s">
         <v>1017</v>
       </c>
@@ -12905,7 +12911,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="2" t="s">
         <v>1022</v>
       </c>
@@ -12930,11 +12936,11 @@
       <c r="I181" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="J181" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J181" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="2" t="s">
         <v>1027</v>
       </c>
@@ -12963,7 +12969,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="2" t="s">
         <v>1032</v>
       </c>
@@ -12992,7 +12998,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="2" t="s">
         <v>1037</v>
       </c>
@@ -13021,7 +13027,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>1042</v>
       </c>
@@ -13053,7 +13059,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>1048</v>
       </c>
@@ -13081,11 +13087,11 @@
       <c r="I186" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J186" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="2" t="s">
         <v>1054</v>
       </c>
@@ -13114,7 +13120,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="2" t="s">
         <v>1059</v>
       </c>
@@ -13143,7 +13149,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>1064</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="2" t="s">
         <v>1070</v>
       </c>
@@ -13204,7 +13210,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13233,7 +13239,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="2" t="s">
         <v>1080</v>
       </c>
@@ -13262,7 +13268,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="2" t="s">
         <v>1085</v>
       </c>
@@ -13291,7 +13297,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="2" t="s">
         <v>1090</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="2" t="s">
         <v>1095</v>
       </c>
@@ -13349,7 +13355,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="2" t="s">
         <v>1100</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="2" t="s">
         <v>1105</v>
       </c>
@@ -13407,7 +13413,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="2" t="s">
         <v>1110</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="2" t="s">
         <v>1115</v>
       </c>
@@ -13465,7 +13471,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="2" t="s">
         <v>1120</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="2" t="s">
         <v>1125</v>
       </c>
@@ -13523,7 +13529,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="2" t="s">
         <v>1131</v>
       </c>
@@ -13552,7 +13558,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="2" t="s">
         <v>1136</v>
       </c>
@@ -13581,7 +13587,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="2" t="s">
         <v>1141</v>
       </c>
@@ -13610,7 +13616,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>1146</v>
       </c>
@@ -13642,7 +13648,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="2" t="s">
         <v>1152</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="2" t="s">
         <v>1157</v>
       </c>
@@ -13700,7 +13706,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="2" t="s">
         <v>1162</v>
       </c>
@@ -13729,7 +13735,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="2" t="s">
         <v>1167</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>1172</v>
       </c>
@@ -13793,7 +13799,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="2" t="s">
         <v>1178</v>
       </c>
@@ -13822,7 +13828,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="2" t="s">
         <v>1183</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="2" t="s">
         <v>1188</v>
       </c>
@@ -13880,7 +13886,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="2" t="s">
         <v>1193</v>
       </c>
@@ -13909,7 +13915,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="2" t="s">
         <v>1198</v>
       </c>
@@ -13938,7 +13944,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13963,11 +13969,11 @@
       <c r="I216" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="J216" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J216" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="2" t="s">
         <v>1208</v>
       </c>
@@ -13996,7 +14002,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="2" t="s">
         <v>1213</v>
       </c>
@@ -14025,7 +14031,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="2" t="s">
         <v>1218</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="2" t="s">
         <v>1223</v>
       </c>
@@ -14083,7 +14089,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>1228</v>
       </c>
@@ -14115,7 +14121,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="2" t="s">
         <v>1234</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="2" t="s">
         <v>1239</v>
       </c>
@@ -14172,11 +14178,11 @@
       <c r="I223" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="J223" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J223" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="2" t="s">
         <v>1244</v>
       </c>
@@ -14205,7 +14211,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="2" t="s">
         <v>1249</v>
       </c>
@@ -14234,7 +14240,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="2" t="s">
         <v>1254</v>
       </c>
@@ -14263,7 +14269,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="2" t="s">
         <v>1259</v>
       </c>
@@ -14292,7 +14298,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="2" t="s">
         <v>1264</v>
       </c>
@@ -14321,7 +14327,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="2" t="s">
         <v>1269</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>1274</v>
       </c>
@@ -14382,7 +14388,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="2" t="s">
         <v>1280</v>
       </c>
@@ -14411,7 +14417,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="2" t="s">
         <v>1285</v>
       </c>
@@ -14440,7 +14446,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="2" t="s">
         <v>1290</v>
       </c>
@@ -14469,7 +14475,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="2" t="s">
         <v>1295</v>
       </c>
@@ -14498,7 +14504,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="2" t="s">
         <v>1300</v>
       </c>
@@ -14527,7 +14533,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="2" t="s">
         <v>1305</v>
       </c>
@@ -14556,7 +14562,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="2" t="s">
         <v>1310</v>
       </c>
@@ -14585,7 +14591,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="2" t="s">
         <v>1315</v>
       </c>
@@ -14610,11 +14616,11 @@
       <c r="I238" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="J238" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J238" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="2" t="s">
         <v>1320</v>
       </c>
@@ -14643,7 +14649,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="2" t="s">
         <v>1325</v>
       </c>
@@ -14675,7 +14681,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="2" t="s">
         <v>1330</v>
       </c>
@@ -14704,7 +14710,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="2" t="s">
         <v>1335</v>
       </c>
@@ -14729,14 +14735,14 @@
       <c r="I242" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="J242" s="6" t="s">
-        <v>1408</v>
+      <c r="J242" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="K242" s="9" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>1340</v>
       </c>
@@ -14768,7 +14774,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>1346</v>
       </c>
@@ -14800,7 +14806,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>1352</v>
       </c>
@@ -14832,7 +14838,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="2" t="s">
         <v>1358</v>
       </c>
@@ -14857,14 +14863,14 @@
       <c r="I246" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="J246" s="6" t="s">
-        <v>1408</v>
+      <c r="J246" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="K246" s="9" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="2" t="s">
         <v>1363</v>
       </c>
@@ -14896,7 +14902,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>1368</v>
       </c>
@@ -14928,7 +14934,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>1374</v>
       </c>
@@ -14956,14 +14962,14 @@
       <c r="I249" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="J249" s="6" t="s">
-        <v>1408</v>
+      <c r="J249" s="3" t="s">
+        <v>1405</v>
       </c>
       <c r="K249" s="9" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>1381</v>
       </c>
@@ -14991,14 +14997,14 @@
       <c r="I250" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="J250" s="6" t="s">
-        <v>1408</v>
+      <c r="J250" s="3" t="s">
+        <v>1405</v>
       </c>
       <c r="K250" s="9" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>1387</v>
       </c>
@@ -15030,7 +15036,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>1393</v>
       </c>
@@ -15062,7 +15068,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15097,7 +15103,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>1430</v>
       </c>
@@ -15125,8 +15131,11 @@
       <c r="I254" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J254" s="3" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>1436</v>
       </c>
@@ -15154,8 +15163,11 @@
       <c r="I255" s="2" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J255" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>1442</v>
       </c>
@@ -15183,8 +15195,11 @@
       <c r="I256" s="2" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J256" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>1448</v>
       </c>
@@ -15212,8 +15227,11 @@
       <c r="I257" s="2" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J257" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>1454</v>
       </c>
@@ -15241,8 +15259,11 @@
       <c r="I258" s="2" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J258" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>1460</v>
       </c>
@@ -15270,8 +15291,11 @@
       <c r="I259" s="2" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J259" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="2" t="s">
         <v>1466</v>
       </c>
@@ -15296,8 +15320,11 @@
       <c r="I260" s="2" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J260" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>1471</v>
       </c>
@@ -15325,8 +15352,11 @@
       <c r="I261" s="2" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J261" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>1477</v>
       </c>
@@ -15354,8 +15384,11 @@
       <c r="I262" s="2" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J262" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>1483</v>
       </c>
@@ -15383,8 +15416,11 @@
       <c r="I263" s="2" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J263" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>1489</v>
       </c>
@@ -15412,8 +15448,11 @@
       <c r="I264" s="2" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J264" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>1495</v>
       </c>
@@ -15441,8 +15480,11 @@
       <c r="I265" s="2" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J265" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>1501</v>
       </c>
@@ -15470,8 +15512,11 @@
       <c r="I266" s="2" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J266" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>1507</v>
       </c>
@@ -15499,8 +15544,11 @@
       <c r="I267" s="2" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J267" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>1513</v>
       </c>
@@ -15528,8 +15576,11 @@
       <c r="I268" s="2" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J268" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>1519</v>
       </c>
@@ -15557,8 +15608,11 @@
       <c r="I269" s="2" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J269" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>1525</v>
       </c>
@@ -15586,8 +15640,11 @@
       <c r="I270" s="2" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J270" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>1531</v>
       </c>
@@ -15615,8 +15672,11 @@
       <c r="I271" s="2" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J271" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>1537</v>
       </c>
@@ -15644,8 +15704,11 @@
       <c r="I272" s="2" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J272" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>1543</v>
       </c>
@@ -15673,8 +15736,11 @@
       <c r="I273" s="2" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J273" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>1549</v>
       </c>
@@ -15702,8 +15768,11 @@
       <c r="I274" s="2" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J274" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>1555</v>
       </c>
@@ -15731,8 +15800,11 @@
       <c r="I275" s="2" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J275" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>1561</v>
       </c>
@@ -15760,8 +15832,11 @@
       <c r="I276" s="2" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J276" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="2" t="s">
         <v>1567</v>
       </c>
@@ -15786,8 +15861,11 @@
       <c r="I277" s="2" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J277" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>1572</v>
       </c>
@@ -15815,8 +15893,11 @@
       <c r="I278" s="2" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J278" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>1578</v>
       </c>
@@ -15844,8 +15925,11 @@
       <c r="I279" s="2" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J279" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>1584</v>
       </c>
@@ -15873,8 +15957,11 @@
       <c r="I280" s="2" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J280" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>1590</v>
       </c>
@@ -15902,8 +15989,11 @@
       <c r="I281" s="2" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J281" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="2" t="s">
         <v>1596</v>
       </c>
@@ -15928,8 +16018,11 @@
       <c r="I282" s="2" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J282" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>1601</v>
       </c>
@@ -15957,8 +16050,11 @@
       <c r="I283" s="2" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J283" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>1607</v>
       </c>
@@ -15986,8 +16082,11 @@
       <c r="I284" s="2" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J284" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>1613</v>
       </c>
@@ -16015,8 +16114,11 @@
       <c r="I285" s="2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J285" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>1619</v>
       </c>
@@ -16044,8 +16146,11 @@
       <c r="I286" s="2" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J286" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>1625</v>
       </c>
@@ -16073,8 +16178,11 @@
       <c r="I287" s="2" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J287" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>1631</v>
       </c>
@@ -16102,8 +16210,11 @@
       <c r="I288" s="2" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J288" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>1637</v>
       </c>
@@ -16131,8 +16242,11 @@
       <c r="I289" s="2" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J289" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>1643</v>
       </c>
@@ -16160,8 +16274,11 @@
       <c r="I290" s="2" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J290" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>1649</v>
       </c>
@@ -16189,8 +16306,11 @@
       <c r="I291" s="2" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J291" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="2" t="s">
         <v>1655</v>
       </c>
@@ -16215,8 +16335,11 @@
       <c r="I292" s="2" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J292" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>1660</v>
       </c>
@@ -16244,8 +16367,11 @@
       <c r="I293" s="2" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J293" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>1666</v>
       </c>
@@ -16273,8 +16399,11 @@
       <c r="I294" s="2" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J294" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="2" t="s">
         <v>1672</v>
       </c>
@@ -16299,8 +16428,11 @@
       <c r="I295" s="2" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J295" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>1677</v>
       </c>
@@ -16328,8 +16460,11 @@
       <c r="I296" s="2" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J296" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>1683</v>
       </c>
@@ -16357,8 +16492,11 @@
       <c r="I297" s="2" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J297" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>1689</v>
       </c>
@@ -16386,8 +16524,11 @@
       <c r="I298" s="2" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J298" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>1695</v>
       </c>
@@ -16415,8 +16556,11 @@
       <c r="I299" s="2" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J299" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16444,8 +16588,11 @@
       <c r="I300" s="2" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J300" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16473,8 +16620,11 @@
       <c r="I301" s="2" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J301" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>1713</v>
       </c>
@@ -16502,8 +16652,11 @@
       <c r="I302" s="2" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J302" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>1719</v>
       </c>
@@ -16531,8 +16684,11 @@
       <c r="I303" s="2" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J303" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>1725</v>
       </c>
@@ -16560,8 +16716,11 @@
       <c r="I304" s="2" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J304" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16589,8 +16748,11 @@
       <c r="I305" s="2" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J305" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>1737</v>
       </c>
@@ -16618,8 +16780,11 @@
       <c r="I306" s="2" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J306" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>1743</v>
       </c>
@@ -16647,8 +16812,11 @@
       <c r="I307" s="2" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J307" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16673,8 +16841,11 @@
       <c r="I308" s="2" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J308" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="2" t="s">
         <v>1754</v>
       </c>
@@ -16699,8 +16870,11 @@
       <c r="I309" s="2" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J309" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="2" t="s">
         <v>1759</v>
       </c>
@@ -16725,8 +16899,11 @@
       <c r="I310" s="2" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J310" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="2" t="s">
         <v>1764</v>
       </c>
@@ -16751,8 +16928,11 @@
       <c r="I311" s="2" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J311" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="2" t="s">
         <v>1769</v>
       </c>
@@ -16777,8 +16957,11 @@
       <c r="I312" s="2" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J312" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="2" t="s">
         <v>1774</v>
       </c>
@@ -16803,8 +16986,11 @@
       <c r="I313" s="2" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J313" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="2" t="s">
         <v>1779</v>
       </c>
@@ -16829,8 +17015,11 @@
       <c r="I314" s="2" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J314" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="2" t="s">
         <v>1784</v>
       </c>
@@ -16855,8 +17044,11 @@
       <c r="I315" s="2" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J315" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="2" t="s">
         <v>1789</v>
       </c>
@@ -16881,8 +17073,11 @@
       <c r="I316" s="2" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J316" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="2" t="s">
         <v>1794</v>
       </c>
@@ -16907,8 +17102,11 @@
       <c r="I317" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J317" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="2" t="s">
         <v>1799</v>
       </c>
@@ -16933,8 +17131,11 @@
       <c r="I318" s="2" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J318" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="2" t="s">
         <v>1804</v>
       </c>
@@ -16959,8 +17160,11 @@
       <c r="I319" s="2" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J319" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="2" t="s">
         <v>1809</v>
       </c>
@@ -16985,8 +17189,11 @@
       <c r="I320" s="2" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="321" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J320" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="321" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="2" t="s">
         <v>1814</v>
       </c>
@@ -17011,8 +17218,11 @@
       <c r="I321" s="2" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="322" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J321" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="322" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="2" t="s">
         <v>1819</v>
       </c>
@@ -17037,8 +17247,11 @@
       <c r="I322" s="2" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="323" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J322" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="323" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="2" t="s">
         <v>1824</v>
       </c>
@@ -17063,8 +17276,11 @@
       <c r="I323" s="2" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="324" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J323" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="324" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="2" t="s">
         <v>1829</v>
       </c>
@@ -17089,8 +17305,11 @@
       <c r="I324" s="2" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="325" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J324" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="325" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="2" t="s">
         <v>1834</v>
       </c>
@@ -17115,8 +17334,11 @@
       <c r="I325" s="2" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="326" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J325" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="326" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="2" t="s">
         <v>1839</v>
       </c>
@@ -17141,8 +17363,11 @@
       <c r="I326" s="2" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="327" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J326" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="327" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="2" t="s">
         <v>1844</v>
       </c>
@@ -17167,8 +17392,11 @@
       <c r="I327" s="2" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="328" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J327" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="328" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="2" t="s">
         <v>1849</v>
       </c>
@@ -17193,8 +17421,11 @@
       <c r="I328" s="2" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="329" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J328" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="329" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="2" t="s">
         <v>1854</v>
       </c>
@@ -17219,8 +17450,11 @@
       <c r="I329" s="2" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="330" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J329" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="330" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="2" t="s">
         <v>1859</v>
       </c>
@@ -17245,8 +17479,11 @@
       <c r="I330" s="2" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="331" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J330" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="331" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="2" t="s">
         <v>1864</v>
       </c>
@@ -17271,8 +17508,11 @@
       <c r="I331" s="2" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="332" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J331" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="332" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="2" t="s">
         <v>1869</v>
       </c>
@@ -17297,8 +17537,11 @@
       <c r="I332" s="2" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="333" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J332" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="333" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="2" t="s">
         <v>1874</v>
       </c>
@@ -17323,8 +17566,11 @@
       <c r="I333" s="2" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="334" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J333" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="334" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="2" t="s">
         <v>1879</v>
       </c>
@@ -17349,8 +17595,11 @@
       <c r="I334" s="2" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="335" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J334" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="2" t="s">
         <v>1884</v>
       </c>
@@ -17375,8 +17624,11 @@
       <c r="I335" s="2" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="336" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J335" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="336" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="2" t="s">
         <v>1889</v>
       </c>
@@ -17401,8 +17653,11 @@
       <c r="I336" s="2" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J336" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="2" t="s">
         <v>1894</v>
       </c>
@@ -17427,8 +17682,11 @@
       <c r="I337" s="2" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J337" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="2" t="s">
         <v>1899</v>
       </c>
@@ -17453,8 +17711,11 @@
       <c r="I338" s="2" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J338" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="2" t="s">
         <v>1904</v>
       </c>
@@ -17479,8 +17740,11 @@
       <c r="I339" s="2" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J339" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="2" t="s">
         <v>1909</v>
       </c>
@@ -17505,8 +17769,11 @@
       <c r="I340" s="2" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J340" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="2" t="s">
         <v>1914</v>
       </c>
@@ -17531,8 +17798,11 @@
       <c r="I341" s="2" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J341" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="2" t="s">
         <v>1919</v>
       </c>
@@ -17557,8 +17827,11 @@
       <c r="I342" s="2" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J342" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="2" t="s">
         <v>1924</v>
       </c>
@@ -17583,8 +17856,11 @@
       <c r="I343" s="2" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J343" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>1929</v>
       </c>
@@ -17612,8 +17888,11 @@
       <c r="I344" s="2" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J344" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="2" t="s">
         <v>1935</v>
       </c>
@@ -17638,8 +17917,11 @@
       <c r="I345" s="2" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J345" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="2" t="s">
         <v>1940</v>
       </c>
@@ -17664,8 +17946,11 @@
       <c r="I346" s="2" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J346" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="2" t="s">
         <v>1945</v>
       </c>
@@ -17690,8 +17975,11 @@
       <c r="I347" s="2" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J347" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="2" t="s">
         <v>1950</v>
       </c>
@@ -17716,8 +18004,11 @@
       <c r="I348" s="2" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J348" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="2" t="s">
         <v>1955</v>
       </c>
@@ -17742,8 +18033,11 @@
       <c r="I349" s="2" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J349" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="2" t="s">
         <v>1960</v>
       </c>
@@ -17768,8 +18062,11 @@
       <c r="I350" s="2" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J350" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="2" t="s">
         <v>1965</v>
       </c>
@@ -17794,8 +18091,11 @@
       <c r="I351" s="2" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J351" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="2" t="s">
         <v>1970</v>
       </c>
@@ -17820,8 +18120,11 @@
       <c r="I352" s="2" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="353" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J352" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="353" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="2" t="s">
         <v>1975</v>
       </c>
@@ -17846,8 +18149,11 @@
       <c r="I353" s="2" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="354" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J353" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="2" t="s">
         <v>1980</v>
       </c>
@@ -17872,8 +18178,11 @@
       <c r="I354" s="2" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="355" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J354" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="355" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="2" t="s">
         <v>1985</v>
       </c>
@@ -17898,8 +18207,11 @@
       <c r="I355" s="2" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="356" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J355" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="2" t="s">
         <v>1990</v>
       </c>
@@ -17924,8 +18236,11 @@
       <c r="I356" s="2" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="357" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J356" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="2" t="s">
         <v>1995</v>
       </c>
@@ -17950,8 +18265,11 @@
       <c r="I357" s="2" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="358" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J357" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="2" t="s">
         <v>2000</v>
       </c>
@@ -17976,8 +18294,11 @@
       <c r="I358" s="2" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="359" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J358" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="2" t="s">
         <v>2005</v>
       </c>
@@ -18002,8 +18323,11 @@
       <c r="I359" s="2" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="360" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J359" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="360" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="2" t="s">
         <v>2010</v>
       </c>
@@ -18028,8 +18352,11 @@
       <c r="I360" s="2" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="361" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J360" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="361" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="2" t="s">
         <v>2015</v>
       </c>
@@ -18054,8 +18381,11 @@
       <c r="I361" s="2" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="362" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J361" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="2" t="s">
         <v>2020</v>
       </c>
@@ -18080,8 +18410,11 @@
       <c r="I362" s="2" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="363" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J362" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="363" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="2" t="s">
         <v>2025</v>
       </c>
@@ -18106,8 +18439,11 @@
       <c r="I363" s="2" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="364" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J363" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="364" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="2" t="s">
         <v>2030</v>
       </c>
@@ -18132,8 +18468,11 @@
       <c r="I364" s="2" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="365" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J364" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="2" t="s">
         <v>2035</v>
       </c>
@@ -18158,8 +18497,11 @@
       <c r="I365" s="2" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="366" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J365" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="366" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="2" t="s">
         <v>2040</v>
       </c>
@@ -18184,8 +18526,11 @@
       <c r="I366" s="2" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="367" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J366" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="367" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="2" t="s">
         <v>2045</v>
       </c>
@@ -18210,8 +18555,11 @@
       <c r="I367" s="2" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="368" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J367" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="368" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="2" t="s">
         <v>2050</v>
       </c>
@@ -18236,8 +18584,11 @@
       <c r="I368" s="2" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="369" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J368" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="369" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="2" t="s">
         <v>2055</v>
       </c>
@@ -18262,8 +18613,11 @@
       <c r="I369" s="2" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="370" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J369" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="370" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="2" t="s">
         <v>2060</v>
       </c>
@@ -18288,8 +18642,11 @@
       <c r="I370" s="2" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="371" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J370" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="371" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="2" t="s">
         <v>2065</v>
       </c>
@@ -18314,8 +18671,11 @@
       <c r="I371" s="2" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="372" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J371" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="372" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="2" t="s">
         <v>2070</v>
       </c>
@@ -18340,8 +18700,11 @@
       <c r="I372" s="2" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="373" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J372" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="2" t="s">
         <v>2075</v>
       </c>
@@ -18366,8 +18729,11 @@
       <c r="I373" s="2" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="374" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J373" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="2" t="s">
         <v>2080</v>
       </c>
@@ -18392,8 +18758,11 @@
       <c r="I374" s="2" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="375" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J374" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="2" t="s">
         <v>2085</v>
       </c>
@@ -18418,8 +18787,11 @@
       <c r="I375" s="2" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="376" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J375" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="2" t="s">
         <v>2090</v>
       </c>
@@ -18444,8 +18816,11 @@
       <c r="I376" s="2" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="377" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J376" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="2" t="s">
         <v>2095</v>
       </c>
@@ -18470,8 +18845,11 @@
       <c r="I377" s="2" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="378" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J377" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="2" t="s">
         <v>2100</v>
       </c>
@@ -18496,8 +18874,11 @@
       <c r="I378" s="2" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="379" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J378" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="2" t="s">
         <v>2105</v>
       </c>
@@ -18522,8 +18903,11 @@
       <c r="I379" s="2" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="380" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J379" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="2" t="s">
         <v>2110</v>
       </c>
@@ -18548,8 +18932,11 @@
       <c r="I380" s="2" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="381" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J380" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="2" t="s">
         <v>2115</v>
       </c>
@@ -18574,8 +18961,11 @@
       <c r="I381" s="2" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="382" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J381" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="382" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="2" t="s">
         <v>2120</v>
       </c>
@@ -18600,8 +18990,11 @@
       <c r="I382" s="2" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="383" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J382" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="383" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="2" t="s">
         <v>2125</v>
       </c>
@@ -18626,8 +19019,11 @@
       <c r="I383" s="2" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="384" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J383" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="384" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="2" t="s">
         <v>2130</v>
       </c>
@@ -18652,8 +19048,11 @@
       <c r="I384" s="2" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J384" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="2" t="s">
         <v>2135</v>
       </c>
@@ -18678,8 +19077,11 @@
       <c r="I385" s="2" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J385" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>2140</v>
       </c>
@@ -18707,8 +19109,11 @@
       <c r="I386" s="2" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J386" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>2146</v>
       </c>
@@ -18736,8 +19141,11 @@
       <c r="I387" s="2" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J387" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="2" t="s">
         <v>2152</v>
       </c>
@@ -18762,8 +19170,11 @@
       <c r="I388" s="2" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J388" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="2" t="s">
         <v>2157</v>
       </c>
@@ -18788,8 +19199,11 @@
       <c r="I389" s="2" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J389" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="2" t="s">
         <v>2162</v>
       </c>
@@ -18814,8 +19228,11 @@
       <c r="I390" s="2" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J390" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="2" t="s">
         <v>2167</v>
       </c>
@@ -18840,8 +19257,11 @@
       <c r="I391" s="2" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J391" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="2" t="s">
         <v>2172</v>
       </c>
@@ -18866,8 +19286,11 @@
       <c r="I392" s="2" t="s">
         <v>2176</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J392" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="2" t="s">
         <v>2177</v>
       </c>
@@ -18892,8 +19315,11 @@
       <c r="I393" s="2" t="s">
         <v>2181</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J393" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="2" t="s">
         <v>2182</v>
       </c>
@@ -18918,8 +19344,11 @@
       <c r="I394" s="2" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J394" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>2187</v>
       </c>
@@ -18947,8 +19376,11 @@
       <c r="I395" s="2" t="s">
         <v>2192</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J395" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>2193</v>
       </c>
@@ -18976,8 +19408,11 @@
       <c r="I396" s="2" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J396" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>2199</v>
       </c>
@@ -19005,8 +19440,11 @@
       <c r="I397" s="2" t="s">
         <v>2204</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J397" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="2" t="s">
         <v>2205</v>
       </c>
@@ -19031,8 +19469,11 @@
       <c r="I398" s="2" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J398" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="2" t="s">
         <v>2211</v>
       </c>
@@ -19057,8 +19498,11 @@
       <c r="I399" s="2" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J399" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>2216</v>
       </c>
@@ -19086,8 +19530,11 @@
       <c r="I400" s="2" t="s">
         <v>2221</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J400" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>2222</v>
       </c>
@@ -19115,8 +19562,11 @@
       <c r="I401" s="2" t="s">
         <v>2229</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J401" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>2230</v>
       </c>
@@ -19144,8 +19594,11 @@
       <c r="I402" s="2" t="s">
         <v>2235</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J402" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>2236</v>
       </c>
@@ -19173,8 +19626,11 @@
       <c r="I403" s="2" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J403" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>2242</v>
       </c>
@@ -19202,8 +19658,11 @@
       <c r="I404" s="2" t="s">
         <v>2247</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J404" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>2248</v>
       </c>
@@ -19231,8 +19690,11 @@
       <c r="I405" s="2" t="s">
         <v>2253</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J405" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>2254</v>
       </c>
@@ -19260,8 +19722,11 @@
       <c r="I406" s="2" t="s">
         <v>2259</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J406" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>2260</v>
       </c>
@@ -19289,8 +19754,11 @@
       <c r="I407" s="2" t="s">
         <v>2265</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J407" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>2266</v>
       </c>
@@ -19317,6 +19785,9 @@
       </c>
       <c r="I408" s="2" t="s">
         <v>2271</v>
+      </c>
+      <c r="J408" s="4" t="s">
+        <v>1406</v>
       </c>
     </row>
   </sheetData>

--- a/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
+++ b/2. Finetuning/Descripciones_Gemini_Cortas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton_Biodiversidad_IA_2025\Hackathon-PNAV\2. Finetuning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\2. Finetuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B6ABC-BC8C-4EF3-986B-2DA861A19767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06AC4E-7AD1-46EC-81EE-6F8D57BACE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="2272">
   <si>
     <t>Nombres comunes</t>
   </si>
@@ -6836,9 +6836,6 @@
   </si>
   <si>
     <t>La culebra real de California es una serpiente de tamaño mediano. Las crías miden alrededor de 23 centímetros, mientras que las adultas alcanzan hasta 1 metro con 20 centímetros. Su cabeza tiene escamas grandes y fáciles de distinguir, y sus ojos son normales, no muy pequeños.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -7294,23 +7291,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G406" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" topLeftCell="F255" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J255" sqref="J255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="2"/>
-    <col min="2" max="2" width="20.54296875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="2"/>
-    <col min="5" max="5" width="45.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="45.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="45.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="45.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -7377,7 +7374,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -7674,7 +7671,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -7738,7 +7735,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>89</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -7837,7 +7834,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -7869,7 +7866,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
@@ -7901,7 +7898,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>113</v>
       </c>
@@ -7933,7 +7930,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
@@ -7965,7 +7962,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -7997,7 +7994,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
@@ -8029,7 +8026,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>139</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
@@ -8093,7 +8090,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>151</v>
       </c>
@@ -8128,7 +8125,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
@@ -8160,7 +8157,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>163</v>
       </c>
@@ -8192,7 +8189,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>175</v>
       </c>
@@ -8256,7 +8253,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>187</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>193</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>199</v>
       </c>
@@ -8384,7 +8381,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>205</v>
       </c>
@@ -8416,7 +8413,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>217</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>223</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
@@ -8544,7 +8541,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>235</v>
       </c>
@@ -8576,7 +8573,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -8608,7 +8605,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>247</v>
       </c>
@@ -8640,7 +8637,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>253</v>
       </c>
@@ -8672,7 +8669,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -8704,7 +8701,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>265</v>
       </c>
@@ -8739,7 +8736,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8768,7 +8765,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>276</v>
       </c>
@@ -8800,7 +8797,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>282</v>
       </c>
@@ -8832,7 +8829,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>288</v>
       </c>
@@ -8864,7 +8861,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -8896,7 +8893,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>300</v>
       </c>
@@ -8928,7 +8925,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>306</v>
       </c>
@@ -8960,7 +8957,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>312</v>
       </c>
@@ -8992,7 +8989,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>318</v>
       </c>
@@ -9024,7 +9021,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>324</v>
       </c>
@@ -9056,7 +9053,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>330</v>
       </c>
@@ -9088,7 +9085,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>336</v>
       </c>
@@ -9120,7 +9117,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>342</v>
       </c>
@@ -9152,7 +9149,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>348</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -9216,7 +9213,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
@@ -9248,7 +9245,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>366</v>
       </c>
@@ -9280,7 +9277,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>372</v>
       </c>
@@ -9312,7 +9309,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>378</v>
       </c>
@@ -9344,7 +9341,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>384</v>
       </c>
@@ -9376,7 +9373,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>390</v>
       </c>
@@ -9408,7 +9405,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>396</v>
       </c>
@@ -9440,7 +9437,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>402</v>
       </c>
@@ -9472,7 +9469,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>408</v>
       </c>
@@ -9504,7 +9501,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>414</v>
       </c>
@@ -9536,7 +9533,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>420</v>
       </c>
@@ -9568,7 +9565,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>426</v>
       </c>
@@ -9600,7 +9597,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>432</v>
       </c>
@@ -9632,7 +9629,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>438</v>
       </c>
@@ -9664,7 +9661,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>444</v>
       </c>
@@ -9696,7 +9693,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>450</v>
       </c>
@@ -9728,7 +9725,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>456</v>
       </c>
@@ -9760,7 +9757,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>461</v>
       </c>
@@ -9792,7 +9789,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>467</v>
       </c>
@@ -9824,7 +9821,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>473</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>479</v>
       </c>
@@ -9888,7 +9885,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>485</v>
       </c>
@@ -9920,7 +9917,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>491</v>
       </c>
@@ -9952,7 +9949,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>497</v>
       </c>
@@ -9984,7 +9981,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>503</v>
       </c>
@@ -10016,7 +10013,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>509</v>
       </c>
@@ -10048,7 +10045,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>515</v>
       </c>
@@ -10080,7 +10077,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>521</v>
       </c>
@@ -10115,7 +10112,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>527</v>
       </c>
@@ -10147,7 +10144,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>533</v>
       </c>
@@ -10176,7 +10173,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>538</v>
       </c>
@@ -10208,7 +10205,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>544</v>
       </c>
@@ -10240,7 +10237,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>550</v>
       </c>
@@ -10272,7 +10269,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>556</v>
       </c>
@@ -10304,7 +10301,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>562</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>568</v>
       </c>
@@ -10368,7 +10365,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>574</v>
       </c>
@@ -10400,7 +10397,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>580</v>
       </c>
@@ -10432,7 +10429,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>586</v>
       </c>
@@ -10464,7 +10461,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>592</v>
       </c>
@@ -10496,7 +10493,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>598</v>
       </c>
@@ -10528,7 +10525,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>604</v>
       </c>
@@ -10560,7 +10557,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>610</v>
       </c>
@@ -10592,7 +10589,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>616</v>
       </c>
@@ -10624,7 +10621,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>622</v>
       </c>
@@ -10659,7 +10656,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>628</v>
       </c>
@@ -10694,7 +10691,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>634</v>
       </c>
@@ -10726,7 +10723,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>640</v>
       </c>
@@ -10758,7 +10755,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>646</v>
       </c>
@@ -10790,7 +10787,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>652</v>
       </c>
@@ -10822,7 +10819,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>658</v>
       </c>
@@ -10854,7 +10851,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>664</v>
       </c>
@@ -10886,7 +10883,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>670</v>
       </c>
@@ -10921,7 +10918,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>676</v>
       </c>
@@ -10956,7 +10953,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>682</v>
       </c>
@@ -10988,7 +10985,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>688</v>
       </c>
@@ -11020,7 +11017,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>694</v>
       </c>
@@ -11049,7 +11046,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>700</v>
       </c>
@@ -11078,7 +11075,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>705</v>
       </c>
@@ -11110,7 +11107,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>712</v>
       </c>
@@ -11139,7 +11136,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>717</v>
       </c>
@@ -11168,7 +11165,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>722</v>
       </c>
@@ -11197,7 +11194,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>727</v>
       </c>
@@ -11226,7 +11223,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>732</v>
       </c>
@@ -11255,7 +11252,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>737</v>
       </c>
@@ -11284,7 +11281,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>742</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>747</v>
       </c>
@@ -11342,7 +11339,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>752</v>
       </c>
@@ -11371,7 +11368,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>757</v>
       </c>
@@ -11400,7 +11397,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>762</v>
       </c>
@@ -11429,7 +11426,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>767</v>
       </c>
@@ -11458,7 +11455,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>772</v>
       </c>
@@ -11487,7 +11484,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>777</v>
       </c>
@@ -11516,7 +11513,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>782</v>
       </c>
@@ -11545,7 +11542,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>787</v>
       </c>
@@ -11574,7 +11571,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>792</v>
       </c>
@@ -11603,7 +11600,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>797</v>
       </c>
@@ -11635,7 +11632,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>802</v>
       </c>
@@ -11664,7 +11661,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>807</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>812</v>
       </c>
@@ -11722,7 +11719,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>817</v>
       </c>
@@ -11751,7 +11748,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>822</v>
       </c>
@@ -11780,7 +11777,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>827</v>
       </c>
@@ -11809,7 +11806,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>832</v>
       </c>
@@ -11838,7 +11835,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>837</v>
       </c>
@@ -11867,7 +11864,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="145" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>842</v>
       </c>
@@ -11896,7 +11893,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>847</v>
       </c>
@@ -11925,7 +11922,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>852</v>
       </c>
@@ -11954,7 +11951,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>857</v>
       </c>
@@ -11983,7 +11980,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>862</v>
       </c>
@@ -12012,7 +12009,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>867</v>
       </c>
@@ -12041,7 +12038,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>872</v>
       </c>
@@ -12070,7 +12067,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>877</v>
       </c>
@@ -12099,7 +12096,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>882</v>
       </c>
@@ -12128,7 +12125,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>887</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>892</v>
       </c>
@@ -12186,7 +12183,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>897</v>
       </c>
@@ -12215,7 +12212,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>902</v>
       </c>
@@ -12244,7 +12241,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>907</v>
       </c>
@@ -12273,7 +12270,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>912</v>
       </c>
@@ -12302,7 +12299,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>917</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>922</v>
       </c>
@@ -12360,7 +12357,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>927</v>
       </c>
@@ -12389,7 +12386,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>932</v>
       </c>
@@ -12418,7 +12415,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>937</v>
       </c>
@@ -12447,7 +12444,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>942</v>
       </c>
@@ -12476,7 +12473,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>947</v>
       </c>
@@ -12505,7 +12502,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>952</v>
       </c>
@@ -12534,7 +12531,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>957</v>
       </c>
@@ -12563,7 +12560,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>962</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>967</v>
       </c>
@@ -12621,7 +12618,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="171" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>972</v>
       </c>
@@ -12650,7 +12647,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>977</v>
       </c>
@@ -12679,7 +12676,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>982</v>
       </c>
@@ -12708,7 +12705,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>987</v>
       </c>
@@ -12737,7 +12734,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>992</v>
       </c>
@@ -12766,7 +12763,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>997</v>
       </c>
@@ -12795,7 +12792,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>1002</v>
       </c>
@@ -12824,7 +12821,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>1007</v>
       </c>
@@ -12853,7 +12850,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>1012</v>
       </c>
@@ -12882,7 +12879,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>1017</v>
       </c>
@@ -12911,7 +12908,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>1022</v>
       </c>
@@ -12940,7 +12937,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>1027</v>
       </c>
@@ -12969,7 +12966,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>1032</v>
       </c>
@@ -12998,7 +12995,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>1037</v>
       </c>
@@ -13027,7 +13024,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>1042</v>
       </c>
@@ -13059,7 +13056,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1048</v>
       </c>
@@ -13091,7 +13088,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>1054</v>
       </c>
@@ -13120,7 +13117,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>1059</v>
       </c>
@@ -13149,7 +13146,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>1064</v>
       </c>
@@ -13181,7 +13178,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>1070</v>
       </c>
@@ -13210,7 +13207,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13239,7 +13236,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>1080</v>
       </c>
@@ -13268,7 +13265,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>1085</v>
       </c>
@@ -13297,7 +13294,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>1090</v>
       </c>
@@ -13326,7 +13323,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>1095</v>
       </c>
@@ -13355,7 +13352,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>1100</v>
       </c>
@@ -13384,7 +13381,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>1105</v>
       </c>
@@ -13413,7 +13410,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>1110</v>
       </c>
@@ -13442,7 +13439,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>1115</v>
       </c>
@@ -13471,7 +13468,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>1120</v>
       </c>
@@ -13500,7 +13497,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>1125</v>
       </c>
@@ -13529,7 +13526,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>1131</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>1136</v>
       </c>
@@ -13587,7 +13584,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
         <v>1141</v>
       </c>
@@ -13616,7 +13613,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1146</v>
       </c>
@@ -13648,7 +13645,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>1152</v>
       </c>
@@ -13677,7 +13674,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>1157</v>
       </c>
@@ -13706,7 +13703,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>1162</v>
       </c>
@@ -13735,7 +13732,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>1167</v>
       </c>
@@ -13764,7 +13761,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1172</v>
       </c>
@@ -13799,7 +13796,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>1178</v>
       </c>
@@ -13828,7 +13825,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>1183</v>
       </c>
@@ -13857,7 +13854,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>1188</v>
       </c>
@@ -13886,7 +13883,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>1193</v>
       </c>
@@ -13915,7 +13912,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>1198</v>
       </c>
@@ -13944,7 +13941,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13973,7 +13970,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>1208</v>
       </c>
@@ -14002,7 +13999,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>1213</v>
       </c>
@@ -14031,7 +14028,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>1218</v>
       </c>
@@ -14060,7 +14057,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>1223</v>
       </c>
@@ -14089,7 +14086,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1228</v>
       </c>
@@ -14121,7 +14118,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>1234</v>
       </c>
@@ -14153,7 +14150,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>1239</v>
       </c>
@@ -14182,7 +14179,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>1244</v>
       </c>
@@ -14211,7 +14208,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>1249</v>
       </c>
@@ -14240,7 +14237,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>1254</v>
       </c>
@@ -14269,7 +14266,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>1259</v>
       </c>
@@ -14298,7 +14295,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>1264</v>
       </c>
@@ -14327,7 +14324,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>1269</v>
       </c>
@@ -14356,7 +14353,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>1274</v>
       </c>
@@ -14388,7 +14385,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>1280</v>
       </c>
@@ -14417,7 +14414,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>1285</v>
       </c>
@@ -14446,7 +14443,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>1290</v>
       </c>
@@ -14475,7 +14472,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>1295</v>
       </c>
@@ -14504,7 +14501,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>1300</v>
       </c>
@@ -14533,7 +14530,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>1305</v>
       </c>
@@ -14562,7 +14559,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>1310</v>
       </c>
@@ -14591,7 +14588,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>1315</v>
       </c>
@@ -14620,7 +14617,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>1320</v>
       </c>
@@ -14649,7 +14646,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>1325</v>
       </c>
@@ -14681,7 +14678,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>1330</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>1335</v>
       </c>
@@ -14742,7 +14739,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>1340</v>
       </c>
@@ -14774,7 +14771,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>1346</v>
       </c>
@@ -14806,7 +14803,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>1352</v>
       </c>
@@ -14838,7 +14835,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>1358</v>
       </c>
@@ -14870,7 +14867,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>1363</v>
       </c>
@@ -14902,7 +14899,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>1368</v>
       </c>
@@ -14934,7 +14931,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1374</v>
       </c>
@@ -14969,7 +14966,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>1381</v>
       </c>
@@ -15004,7 +15001,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>1387</v>
       </c>
@@ -15036,7 +15033,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>1393</v>
       </c>
@@ -15068,7 +15065,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15103,7 +15100,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>1430</v>
       </c>
@@ -15132,10 +15129,10 @@
         <v>1435</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>1436</v>
       </c>
@@ -15167,7 +15164,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>1442</v>
       </c>
@@ -15199,7 +15196,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>1448</v>
       </c>
@@ -15231,7 +15228,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>1454</v>
       </c>
@@ -15263,7 +15260,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>1460</v>
       </c>
@@ -15295,7 +15292,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>1466</v>
       </c>
@@ -15324,7 +15321,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>1471</v>
       </c>
@@ -15356,7 +15353,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>1477</v>
       </c>
@@ -15388,7 +15385,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>1483</v>
       </c>
@@ -15420,7 +15417,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>1489</v>
       </c>
@@ -15452,7 +15449,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>1495</v>
       </c>
@@ -15484,7 +15481,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>1501</v>
       </c>
@@ -15516,7 +15513,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>1507</v>
       </c>
@@ -15548,7 +15545,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>1513</v>
       </c>
@@ -15580,7 +15577,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>1519</v>
       </c>
@@ -15612,7 +15609,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>1525</v>
       </c>
@@ -15644,7 +15641,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>1531</v>
       </c>
@@ -15676,7 +15673,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>1537</v>
       </c>
@@ -15708,7 +15705,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>1543</v>
       </c>
@@ -15740,7 +15737,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>1549</v>
       </c>
@@ -15772,7 +15769,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>1555</v>
       </c>
@@ -15804,7 +15801,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>1561</v>
       </c>
@@ -15836,7 +15833,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>1567</v>
       </c>
@@ -15865,7 +15862,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>1572</v>
       </c>
@@ -15897,7 +15894,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>1578</v>
       </c>
@@ -15929,7 +15926,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>1584</v>
       </c>
@@ -15961,7 +15958,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>1590</v>
       </c>
@@ -15993,7 +15990,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>1596</v>
       </c>
@@ -16022,7 +16019,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1601</v>
       </c>
@@ -16054,7 +16051,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>1607</v>
       </c>
@@ -16086,7 +16083,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1613</v>
       </c>
@@ -16118,7 +16115,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>1619</v>
       </c>
@@ -16150,7 +16147,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1625</v>
       </c>
@@ -16182,7 +16179,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>1631</v>
       </c>
@@ -16214,7 +16211,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>1637</v>
       </c>
@@ -16246,7 +16243,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>1643</v>
       </c>
@@ -16278,7 +16275,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>1649</v>
       </c>
@@ -16310,7 +16307,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>1655</v>
       </c>
@@ -16339,7 +16336,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>1660</v>
       </c>
@@ -16371,7 +16368,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>1666</v>
       </c>
@@ -16403,7 +16400,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>1672</v>
       </c>
@@ -16432,7 +16429,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>1677</v>
       </c>
@@ -16464,7 +16461,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>1683</v>
       </c>
@@ -16496,7 +16493,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>1689</v>
       </c>
@@ -16528,7 +16525,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>1695</v>
       </c>
@@ -16560,7 +16557,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16592,7 +16589,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16624,7 +16621,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>1713</v>
       </c>
@@ -16656,7 +16653,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>1719</v>
       </c>
@@ -16688,7 +16685,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>1725</v>
       </c>
@@ -16720,7 +16717,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16752,7 +16749,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>1737</v>
       </c>
@@ -16784,7 +16781,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>1743</v>
       </c>
@@ -16816,7 +16813,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16845,7 +16842,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>1754</v>
       </c>
@@ -16874,7 +16871,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>1759</v>
       </c>
@@ -16903,7 +16900,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>1764</v>
       </c>
@@ -16932,7 +16929,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>1769</v>
       </c>
@@ -16961,7 +16958,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>1774</v>
       </c>
@@ -16990,7 +16987,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>1779</v>
       </c>
@@ -17019,7 +17016,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
         <v>1784</v>
       </c>
@@ -17048,7 +17045,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>1789</v>
       </c>
@@ -17077,7 +17074,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>1794</v>
       </c>
@@ -17106,7 +17103,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>1799</v>
       </c>
@@ -17135,7 +17132,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>1804</v>
       </c>
@@ -17164,7 +17161,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>1809</v>
       </c>
@@ -17193,7 +17190,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="321" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="2" t="s">
         <v>1814</v>
       </c>
@@ -17222,7 +17219,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="322" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>1819</v>
       </c>
@@ -17251,7 +17248,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="323" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>1824</v>
       </c>
@@ -17280,7 +17277,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="324" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>1829</v>
       </c>
@@ -17309,7 +17306,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="325" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>1834</v>
       </c>
@@ -17338,7 +17335,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="326" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>1839</v>
       </c>
@@ -17367,7 +17364,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="327" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>1844</v>
       </c>
@@ -17396,7 +17393,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="328" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>1849</v>
       </c>
@@ -17425,7 +17422,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="329" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>1854</v>
       </c>
@@ -17454,7 +17451,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="330" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>1859</v>
       </c>
@@ -17483,7 +17480,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="331" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>1864</v>
       </c>
@@ -17512,7 +17509,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="332" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>1869</v>
       </c>
@@ -17541,7 +17538,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="333" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>1874</v>
       </c>
@@ -17570,7 +17567,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="334" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>1879</v>
       </c>
@@ -17599,7 +17596,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="335" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>1884</v>
       </c>
@@ -17628,7 +17625,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="336" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>1889</v>
       </c>
@@ -17657,7 +17654,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>1894</v>
       </c>
@@ -17686,7 +17683,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>1899</v>
       </c>
@@ -17715,7 +17712,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>1904</v>
       </c>
@@ -17744,7 +17741,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>1909</v>
       </c>
@@ -17773,7 +17770,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>1914</v>
       </c>
@@ -17802,7 +17799,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>1919</v>
       </c>
@@ -17831,7 +17828,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>1924</v>
       </c>
@@ -17860,7 +17857,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>1929</v>
       </c>
@@ -17892,7 +17889,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
         <v>1935</v>
       </c>
@@ -17921,7 +17918,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>1940</v>
       </c>
@@ -17950,7 +17947,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>1945</v>
       </c>
@@ -17979,7 +17976,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>1950</v>
       </c>
@@ -18008,7 +18005,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>1955</v>
       </c>
@@ -18037,7 +18034,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>1960</v>
       </c>
@@ -18066,7 +18063,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>1965</v>
       </c>
@@ -18095,7 +18092,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>1970</v>
       </c>
@@ -18124,7 +18121,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="353" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>1975</v>
       </c>
@@ -18153,7 +18150,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="354" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>1980</v>
       </c>
@@ -18182,7 +18179,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="355" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>1985</v>
       </c>
@@ -18211,7 +18208,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="356" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>1990</v>
       </c>
@@ -18240,7 +18237,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="357" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>1995</v>
       </c>
@@ -18269,7 +18266,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="358" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
         <v>2000</v>
       </c>
@@ -18298,7 +18295,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="359" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
         <v>2005</v>
       </c>
@@ -18327,7 +18324,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="360" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
         <v>2010</v>
       </c>
@@ -18356,7 +18353,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="361" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>2015</v>
       </c>
@@ -18385,7 +18382,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="362" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>2020</v>
       </c>
@@ -18414,7 +18411,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="363" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
         <v>2025</v>
       </c>
@@ -18443,7 +18440,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="364" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>2030</v>
       </c>
@@ -18472,7 +18469,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="365" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
         <v>2035</v>
       </c>
@@ -18501,7 +18498,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="366" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
         <v>2040</v>
       </c>
@@ -18530,7 +18527,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="367" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="2" t="s">
         <v>2045</v>
       </c>
@@ -18559,7 +18556,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="368" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
         <v>2050</v>
       </c>
@@ -18588,7 +18585,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="369" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>2055</v>
       </c>
@@ -18617,7 +18614,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="370" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>2060</v>
       </c>
@@ -18646,7 +18643,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="371" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
         <v>2065</v>
       </c>
@@ -18675,7 +18672,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="372" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
         <v>2070</v>
       </c>
@@ -18704,7 +18701,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="373" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
         <v>2075</v>
       </c>
@@ -18733,7 +18730,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="374" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
         <v>2080</v>
       </c>
@@ -18762,7 +18759,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="375" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
         <v>2085</v>
       </c>
@@ -18791,7 +18788,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="376" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
         <v>2090</v>
       </c>
@@ -18820,7 +18817,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="377" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
         <v>2095</v>
       </c>
@@ -18849,7 +18846,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="378" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="2" t="s">
         <v>2100</v>
       </c>
@@ -18878,7 +18875,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="379" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="2" t="s">
         <v>2105</v>
       </c>
@@ -18907,7 +18904,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="380" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>2110</v>
       </c>
@@ -18936,7 +18933,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="381" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>2115</v>
       </c>
@@ -18965,7 +18962,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="382" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
         <v>2120</v>
       </c>
@@ -18994,7 +18991,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>2125</v>
       </c>
@@ -19023,7 +19020,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
         <v>2130</v>
       </c>
@@ -19052,7 +19049,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>2135</v>
       </c>
@@ -19081,7 +19078,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>2140</v>
       </c>
@@ -19113,7 +19110,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>2146</v>
       </c>
@@ -19145,7 +19142,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
         <v>2152</v>
       </c>
@@ -19174,7 +19171,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>2157</v>
       </c>
@@ -19203,7 +19200,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
         <v>2162</v>
       </c>
@@ -19232,7 +19229,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
         <v>2167</v>
       </c>
@@ -19261,7 +19258,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
         <v>2172</v>
       </c>
@@ -19290,7 +19287,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
         <v>2177</v>
       </c>
@@ -19319,7 +19316,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
         <v>2182</v>
       </c>
@@ -19348,7 +19345,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>2187</v>
       </c>
@@ -19380,7 +19377,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>2193</v>
       </c>
@@ -19412,7 +19409,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>2199</v>
       </c>
@@ -19444,7 +19441,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
         <v>2205</v>
       </c>
@@ -19473,7 +19470,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
         <v>2211</v>
       </c>
@@ -19502,7 +19499,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>2216</v>
       </c>
@@ -19534,7 +19531,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>2222</v>
       </c>
@@ -19566,7 +19563,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>2230</v>
       </c>
@@ -19598,7 +19595,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>2236</v>
       </c>
@@ -19630,7 +19627,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>2242</v>
       </c>
@@ -19662,7 +19659,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>2248</v>
       </c>
@@ -19694,7 +19691,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>2254</v>
       </c>
@@ -19726,7 +19723,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>2260</v>
       </c>
@@ -19758,7 +19755,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>2266</v>
       </c>
